--- a/downloads/2022-infractionalitate.xlsx
+++ b/downloads/2022-infractionalitate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georgiana.filimon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciprian.zetu\Desktop\ANA\dataGOV\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB27E21A-CA97-4F69-B21F-2E9BDFF40338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC1E8ED-1392-4990-8C0E-0664F1DBA26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,18 @@
     <t>Persoane trimise în judecată</t>
   </si>
   <si>
+    <t>SITUAȚIA PEDEPSELOR APLICATE PENTRU INFRACȚIUNI LA REGIMUL DROGURILOR ÎN PERIOADA IANUARIE - DECEMBRIE 2021</t>
+  </si>
+  <si>
     <t>Grupări identificate</t>
   </si>
   <si>
     <t>Număr persoane implicate în grupări</t>
   </si>
   <si>
+    <t>PERSOANE CERCETATE, TRIMISE ÎN JUDECATĂ ȘI CONDAMNATE ÎN PERIOADA IANUARIE - DECEMBRIE 2021</t>
+  </si>
+  <si>
     <t>Bărbați</t>
   </si>
   <si>
@@ -81,22 +87,16 @@
     <t>Art.4 din Legea nr. 143/2000</t>
   </si>
   <si>
-    <t>PERSOANE CERCETATE, TRIMISE ÎN JUDECATĂ ȘI CONDAMNATE ÎN PERIOADA IANUARIE - DECEMBRIE 2022</t>
-  </si>
-  <si>
-    <t>PERSOANE CONDAMNATE ÎN PERIOADA IANUARIE - DECEMBRIE 2022, PE ÎNCADRARE JURIDICĂ</t>
-  </si>
-  <si>
-    <t>PERSOANE CONDAMNATE ÎN PERIOADA IANUARIE - DECEMBRIE 2022, PE SEXE</t>
-  </si>
-  <si>
-    <t>Măsuri neprivative de libertate-minori</t>
-  </si>
-  <si>
-    <t>SITUAȚIA GRUPĂRILOR INFRACȚIONALE IDENTIFICATE ÎN PERIOADA IANUARIE - DECEMBRIE 2022</t>
-  </si>
-  <si>
-    <t>SITUAȚIA PEDEPSELOR APLICATE PENTRU INFRACȚIUNI LA REGIMUL DROGURILOR ÎN PERIOADA IANUARIE - DECEMBRIE 2022</t>
+    <t>Art.7 din Legea nr. 143/2000</t>
+  </si>
+  <si>
+    <t>PERSOANE CONDAMNATE ÎN PERIOADA IANUARIE - DECEMBRIE 2021, PE ÎNCADRARE JURIDICĂ</t>
+  </si>
+  <si>
+    <t>PERSOANE CONDAMNATE ÎN PERIOADA IANUARIE - DECEMBRIE 2021, PE SEXE</t>
+  </si>
+  <si>
+    <t>SITUAȚIA GRUPĂRILOR INFRACȚIONALE IDENTIFICATE ÎN PERIOADA IANUARIE - DECEMBRIE 2021</t>
   </si>
 </sst>
 </file>
@@ -155,16 +155,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,215 +449,230 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="6" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>10783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>2554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+      <c r="B14" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B19" s="1">
+        <v>878</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1">
-        <v>992</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1">
-        <v>164</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B20" s="1">
+        <v>146</v>
+      </c>
+      <c r="C20" s="1">
         <v>3</v>
       </c>
-      <c r="B23" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1">
+        <v>299</v>
+      </c>
+      <c r="C30" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1">
+        <v>482</v>
+      </c>
+      <c r="C31" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="1">
-        <v>439</v>
-      </c>
-      <c r="C29" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1">
-        <v>473</v>
-      </c>
-      <c r="C30" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="1">
-        <v>93</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B32" s="1">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
